--- a/Testdata/TC_92.xlsx
+++ b/Testdata/TC_92.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>CjQAAB+LCAAAAAAAAAPtW1tvG8cV/isLPrVAqb1IpCh1vAFFSgoRSjREOrbyYgx3R9JWy1l2Z1cS39yHwIBrFyjqGEjapnWAokGAxn5IC9cJ2v8SmLLz1L/QMzN75cXmum5gAzQMmHNuc+bMmXO+WYzRexcDVzkjPnM8eqWkr2glhVDLsx16fKUUBkdlvVp6z0TbFxZxr2IfD0gAwgpoUbZ5wZwrpZMgGG6q6vn5+cr56ornH6uGpunqjb121zohA1x2KAswtUgp0bJfrVUyUcMe7JEA2zjAUvNKqdVtrTSIYzWBtocpPib+ylbIHEoY26aBEziEcU2f4IA0mnsfyoWZxkp1RUfqFD2V3Aod15ZyOUlJj+RgWtJzBsQ0NL1W1o2ytt7Ttc216qahreha5aNYMRFEbcyCLvHPHEsQugEeDIW6bmjrurZWNTSkzhQCW2kATNRx7QNy5jBiN4jrskIRUaMNrFsBrLpYMMG9jG5k6PVd2PXx8KTnBC4pqr7j+cSCQL3W3PvkvONH8esN28DtnTh+MGriUWFb1xjxO0MejWKqJmp6NKi7xA+uDWFTiQ17Dgwz8EOC1DnMVKnpMAt+OzQktnmEXZZVyjHRdc8/ZUNskX04sCq3cU5dD9uQWYHDAsdKJ51ioKu+NwSLMPmW59o7YDUSnsFILLcohJhPu+V5p6l3s5hI5IDIBtjTAQ5i8Sk66p545x3qjrphn1m+0yd2cyuWnslD/ORF2o2QBd4AvEhJSNIylBH8gZM2SUZNYjkD7F51IYjMXAUrOQKqh4F35AQNzw0HlMU+TVDRdVhRj1wkK0zGqAObS3nQPdqisbwM80xWXuHAO0/mnGaIIGTIdWbF2z3NmBRuAi3evmmO2BG+yh3HhUaQ3YsMNZ8V3RNCgpkpITmI17wd3lrMuusiNR0iSEtIbXDD1KA7lMXfnqZtir8wbcJG29SeLxcz0X446PTh+J6JBZk68CZICJbgbrmYngL1uhOc7Ndj12dwkFzwXPlpHoKDOnTxSJCToGRpqEUtN7SJPP8teiQykvsm93AuG02R2nCkTYTpqDcaQr1lzmYAP66UoANvssCHHl8yLS+kgT/ihQKpkeirdFjYp2IC7C6sc+STX4YALUY7IbUanr34bLaMzjXqBIt76IW+rH6Lq4jo8UIYsibhJUXU+IX1rSJrYn4h8QElA4861uLRhiBz7+3XWAiLT9XCGkSer4XlXWjjssvxs76wmg+4EPpaoWnqjHmWI5I1Oh52Rl+dc2Sa5AiHLmCyADrqcVJqJ8mozk4nZbIkdM1344JncsTLAPJa9mDFAqzAYd2K5Q04QQWkeb2L1Kw8BzwW2abHbUyPQ4AUSV2ZpCfllrfDno8p48tJEMRE5Z0thOI6JZGNKYtXJxSJIIuXB1ykTsihHhkMPR+7exAYZydKuwgeAfLYw8FJNIJW5hIrDrKaqiZaec9ix18lJnqSXAY/8FGZnCAKIb4WCa5TmZSG+Cr34Fi6Dew6fV9W1bhzz+LBhqVYMK6/fHEFcWG8B3DBgmb7ARlx1J0OIrpIWT1myATmhdTsHqzVjIq2XgUgw8dIrPhD7IZEqds2sRWHKi1qA8jxAezIeEQ95+WiWSG0E1dwMUkdPMlT8gIAHI4daBDTggknVTAPCfbdUUZQLqLtWSD34uHdZ08+G3/x+fjOn8e3vpMrkCzUw32XiOl7W7WatroG+ZKQEA+SKhCtHVqBoB0eCiCbjFF08RKDxnarsdveEnUhIcbqsjWo/E438sJ02JUui4nE1qjxjkoRsxfXmWic42ZajcnvWGckL53lz1OUsXj+7V+ff/u3udpRwFLMpG/U1sQl9hWQCi7m1Sm5BFK1c7WcX23XylqlbBgZ4QkZdCALeRKnlm2u6tqGZlQ1PanJdpKjs4QmWZGlHj5WJ/QkqSFhTpIC2XHMFGneIyxI2DLxMwMZxMu///rFo09yUlF0I0reCjgn4AifTI0HwvT+QU/pdq4dNLaV3naX50nKy8hJ4y8RjmZPTk8uqSgNsfszBZo0NCWlBBeZkuIdKQRbJ8oIzl3m1OWSbRZVTvSaJie93PW9cCh3JKOQUmdIJrVjpsaMyiJ4Ip5TJSZlzRCXvo7/+c0shWghzRSYmu0PDpQBTfJS0FCOI0kZfnRqP/3Xsye3Lx88+uH23fHHj8f3Ho7vfXH56H7OVDRhcq2HhIdjlR0m+Q+1L2ogExR0vSuieqrdzDSMiMhvRlc9hwbMNFbFpSgaIVDVuTXxL2oNoIcJwyJwQJ+goPcx274IohNu7iM1TwA/hxjap5feHROCLOZpgH/44+eXv//m8sHjF7e/Gt/5cnz3wfNv//Ti64fy+F1+8vjy3tdRuZ/sCMIXfiOVqE4R3zcshR9LhTdj5ftbv1OoFyiAIZRQlKbvb32aMcYdFWgjtQwYLXEk78KUaFaZ6ykZVxIfcnqJiuzoDd7LVhOJqJt5Q8dKJ/mozE3xAygYP2n1yiEjigfw6KewkrxwqryoXqQie+vVdc3QjYgrveFL6GOWCf2u6/Wxq8QM8QFhQiSn9XKFVFbMt9vubNXbqYh0ouPbxOdpKH+gGCPy3tJi8ShOtQwFuIDkrNDl33ymxKZZieVMPVOjjydHgJwgnLO/PeQkUCP0fYmDaPTRvRsOAd3Gn9jm88Vnxwyg3ZfgMwtx03GrmefDOMOFjphnc4LgixoVsWS9ajH+nUbi030emnQIvNynSghH9F1dQq4zB7ZE5XVn2/c9f2bxSTmx2B5AY6goahrxREbsqYTRdrpXMSEueG8KTlcqOTi9650FygE5IxSgclnp4Qvl5xwpO7BMaIbwE+5yZBa6XlTz7QDbl/f/PX76h8v7/xh//Jfy8y9/M77z8D/fffbsyVfPnj6V1CX+flP4e6O2GP7W9R8Hf+vrC+BvKbTE30v8/Tbh74O9rTn4O+a8FH/z4vb4t+Mnv/ofYbc+H3brNzONZRp262tL2L2E3e8U7NaXsPtdgd0Txectht3r+lzY/Spw/TZC6CVYflNguaItCJaNHwks1xYBy7UlWF6C5SVYngmWjflg2biZaQfTYLm6/Ea9BMvvFlg2lmD5XQHLE8Xn/wKW1fSxSFIXvSZxSVD4YXSsveedvbYu7H1R1RbruHYUzGLvXZKwpAayr8N5ohR1pu77AKH4c9LCz7nbDj1tFVu9qdurxlpN61cI0Umlv7FasUjNquB+v1rVNmBt0ih//sRNDABn88dDBSdBal49feh1gOlxQWsywEKRP4aCSEVvw3ccnwU3eJuMfknKYUI5lLj5Bn8FLX+I8aFZq0kCCKhZ62rOzbigBPJ/Dnhu2xk4BV9IaXHVyRuBfR8OJbAsuoPQ8PbJBcDejAUo1f1fQDOTTwqLWJPHCCp8os+f8TLn+CQo6phmaGTdslbLFdI3ymurlY1yrWqslY8sHZMNo6pXamv8EXBkHOqZQ84LTqLGG5b+jx7zvzwmbkcKNAAA</t>
+          <t>bDUAAB+LCAAAAAAAAAPtW1tvG8cV/isLPrVAqb3oRqnjDShSUolQF4h0bOXFGO4OpamWu+zOriS+uQ+BAdcuUNQxkLRN6wBFgwCN/ZAWrh20/yUwZeepf6FnZvbKi8VV3EABGBgI59zmzJlz+XaxQu+d9xzllPiMeu6Nkr6glRTiWp5N3aMbpTDolvWV0nsm2jy3iLOPfdwjAQgroOWy9XNGb5SOg6C/rqpnZ2cLZ4sLnn+kGpqmq7d3mi3rmPRwmboswK5FSomWfblWyUQ1u7dDAmzjAEvNG6VGq7FQI9SqA20Hu/iI+AsbIaMuYWzTDWhACeOaPsEBqdV3PpAHM42FlQUdqWP0VHIjpI4t5XKSkh7JwbakTXvENDRDK2uVsqG19dX1JWNdX1wwllY/jBUTQdTELGgR/5RagtAKcK8v1LWKoemrS4a+iNSJQmArDYCJ9hz7gJxSRuwacRxWKCJqdIFVK4BTFwumhtSMbmTo6i5s+7h/3KaBQ4qqb3k+sSBQV9p7l5zt+VH82v0mcNvH1A8GdTwobOsmI/5en0ejmKqJ6p4bVB3iBzf7cKnEhjsHhhn4IUHqFGaqVKfMgt/UDYltdrHDsko5Jrrl+Sesjy2yCwWrchtnruNhGzIroCygVrrpGAPt+14fLMLmG55jb4HVSHgCI7HccCHEfNsNzztJvZvERCIHRDbAnfZwEIuP0VHr2Dvbc51BK+wwy6cdYtc3YumJPMQrL9KuhSzweuBFSkKSlqEM4D+otFEyqhOL9rCz70AQmQk1miegahh4XRrUPCfsuSz2aYSKbsGJ2uQ8OWGyRntwuS4Puuc23FhehnkiK69w4J0le44zRBAy5Cqz4useZ4wK14EWX984R9wIP+UWdWAQZO8iQ81nReuYkGBiSkgO4j1vi48Ws+o4SE2XCNISUhvcMDWYDmXxr61p6+IfbJuw0aZrT5eLmWg37O11oHxPxYFMHXgjJARHcDYc7J4A9RYNjnersesTOEgeeKr8OA9BofYdPBDkJChZGmq4lhPaRNZ/w+2KjOS+yTucykZjpCaUtImwO2gP+tBvGV0P4MeNEkzgdRb4MONLpuWFbuAPeKNAaiR6mQ4LO67YADsz63R98qsQoMVgK3StmmfPvpsto3PTpcHsHnqhL7vf7CoierwRhqxOeEsRPX5mfavImZhfSLznkp7nUmv2aEOQuff2FQ7C4qqaWYPI+ppZ3oExLqccr/WZ1XzAhTDXCm1TZcyzqEjWqDzsjL46pWTqpItDBzBZABP1KGm1o2RUZSejMlkSuuk7ccMzOeJlAHktu7dgAVbgsG7B8nqcoALSvNVCalaeAx6LbLpHTewehQApkr4ySk/aLR+HbR+7jB8nQRAjnXeyEIr7lEQ2pmxee6FIBNm8POAidUQOtUmv7/nY2YHA0K0o7SJ4BMhjBwfH0QpGmUOsOMhqqppo5T2LHb9MTMwkeQxe8FGbHCEKIX4WCa5TmZSG+Cl3oCydGnZox5ddNZ7ck3hwYSkWjPsvP1xBXBjfATxgwbB9nww46k4XEV2krB4zZALzRmq2DpYqxrK2vAxAhq+ROPG2dxooAHkJQEKlrLTxufJzpeHa9JTaIXbgJyQfnEyGJxpBhTSzOmgr7u/ChSr4mafkBQBWHFEYH+OCCSdVMA8J9p1BRlAeselZIHfx6D/DF3+8ePTP4Ud/Lb/+4rfD+0/++82nr55/+erFC0mVZ5TSqI07DhEetTcqFW1xCRIsISEeVVVAYDu0AkE7PBTIN1mj6ElNLGqbjdp2c0M0koQYq8tZovKHwIEXpsuWPIXYSNylGqeAFDHbcWOK1jluZjaZ/KHslOSls/xpijIWr1/+7fXLv0/VjgKWgix9ba1S1o1LMRg82OpjcgkGa+aaPxdeKmvLZcPICI/IoAPZ+ZM4NWxzUdfW4AFa05MmbidZPElolBVZauMjdURPkmoSFyUpkF3HTJH5bcKChC1rIbOIcvQfv3nz9OOcVBTdiJK3As4J/MI3U+OFML170FZaezcPaptKe7PF8yTlZeSk8bcIR7snBZVLKteFKv+ZAlMdpphSgiefkuJ1FYKtY2UApZgpxFyyTaLKja5octTLbd8L+/JGMgopdYJk0k4makxoNoIn4jnWdVLWBHHp6/BfX09SiA5ST5GsebCzofTcJC8FDeU4kpThR1X7yb9fPb/Hm9uz3w2f/zpnIdonefyHPIdqyi6TtIeWFw2aEQq61RLBPNHuZAZLRORPUPsedQNm6kvi4SlaIVDVuTXxf9TowawThkW8gD5CQb/AbPM8iArb3EVqngB+9jGMWS99xkwIsoencf3uT59d/OHri8fP3tz7cnj/i+GDx69f/vnNV09k1V18/Ozi4VdRlx8dBMIX/uQq0Z8i3oNYCq9GhQ9t5du7v1dcL1AAayih6Ejf3v0kY4w7KlBJahmwXOJI3oUx0awy11MyriQ+5PQSFTn5a3yELSYS0RDz+tRKN/mwzE3xuhOMnzTa5ZARxQMY9VM4SV44VZ5VL1KRI3V/VTN0I+JKb/gROphlQr/teB2AETFDvGgYEclpvV0hlRX7bTf3NqrNVEQ6sefbxOdpKH+gBovRZJxeGQpwAeVZocPfB42JjbNQ/CvTutToxUq3avOWN/m9RE4C1ULflyjIjV7It8I+IN/49dt0vnglmQG7uxKYZuFvum7U83xYZ7gw/PJsThB80Y4ilmxNDcbf4UjsustDky6Bl3uNCeGI3rlLdAVIkvgq7zWbvu/5ExtOyonFdgA2QxdR04gnMirfUkJsO72rmBA3uXcFtVf1qVD7MkB9HWHzHCC/K4C8rM0IkI0fCCBXZgHIlTlAngPkOUCeCJD16QBZv5MZB+MAeWVxDpDnAPlHBZD1OUC+zgB5pOFcZ4C8kgPIH2AnJArcI7EV6vJ3ySGDMT4JK08VvR6w+c2TB6+efzr8/LPh/b8M734zR87vCjlXlmZDztrKD4OcjZUZkLMUmiPnOXK+Tsi5+f7BFOQcc96KnC8eP/3u3oPhR8+GD58MH35+8fTR94TQxnQIbdzJDIxxCG3MIfQcQv+4ILQxh9DXGUKPNJz/C4RW0w9Bkl7o1YlDgsIfPcfaO97plXXh7ouqNtieY0fBLPYtSxKW1ED2y2+eKEWdqfo+4Cf+qWjhT7Wb1D1pFDu92cHW0ppu4VVrtWuvVbC9trZoLVsW6ZIuNEJAkMIo/7SJm+gByOYfBhXbBFBjXj39iOsAu0cFrckAC0X+oRNEShRk1NiTNdqiPgtu80kZ/ZKUw4RyKDH0bTP6o4Tbcn1oViqSAAJqdjM153XcXwL5RwKe06Q9WvBjKC1uQnkjkAb9vgSZRS8UZt4uOQcInLEA3brzS5hn8uvBItZkVUGTT/RjW62wU9icGivvA58n1tW0N23AZVfXFp/cU+d7OCCQ11VNNFxGj46DovdqQGGSFWKUja5llZdgUYZp3CnbuLuma1p30V42+OfSkXGYDpScFdyEzxTK4AGjuJ468jdT5v8ArS8eEGw1AAA=</t>
         </r>
       </text>
     </comment>
@@ -418,17 +418,17 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
+          <t>Govt Revenue - Tax ; Individual Income</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Govt Revenue</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
           <t>Value Added in Industry</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Govt Revenue - Tax ; Individual Income</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Govt Revenue</t>
         </is>
       </c>
     </row>
@@ -494,17 +494,17 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
+          <t>RMB mn</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>RMB mn</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>LKR mn</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>RMB mn</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>RMB mn</t>
         </is>
       </c>
     </row>
@@ -559,13 +559,13 @@
         </is>
       </c>
       <c r="B8" s="3">
+        <v>310901701</v>
+      </c>
+      <c r="C8" s="3">
+        <v>310901801</v>
+      </c>
+      <c r="D8" s="3">
         <v>310902601</v>
-      </c>
-      <c r="C8" s="3">
-        <v>310901701</v>
-      </c>
-      <c r="D8" s="3">
-        <v>310901801</v>
       </c>
     </row>
     <row r="9">
@@ -576,17 +576,17 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
+          <t>SR4825055</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>SR4825071</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>SR4825076</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>SR4825055</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>SR4825071</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" s="4">
+        <v>36130</v>
+      </c>
+      <c r="C12" s="4">
+        <v>18598</v>
+      </c>
+      <c r="D12" s="4">
         <v>31017</v>
-      </c>
-      <c r="C12" s="4">
-        <v>36130</v>
-      </c>
-      <c r="D12" s="4">
-        <v>18598</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" s="4">
+        <v>40878</v>
+      </c>
+      <c r="C13" s="4">
+        <v>41244</v>
+      </c>
+      <c r="D13" s="4">
         <v>39052</v>
-      </c>
-      <c r="C13" s="4">
-        <v>40878</v>
-      </c>
-      <c r="D13" s="4">
-        <v>41244</v>
       </c>
     </row>
     <row r="14">
@@ -685,13 +685,13 @@
         </is>
       </c>
       <c r="B17" s="2">
+        <v>1095.701428571428</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1015719.888888889</v>
+      </c>
+      <c r="D17" s="2">
         <v>110868.4347826087</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1095.701428571428</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1015719.888888889</v>
       </c>
     </row>
     <row r="18">
@@ -701,13 +701,13 @@
         </is>
       </c>
       <c r="B18" s="2">
+        <v>273181.8365978022</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4408073684977.941</v>
+      </c>
+      <c r="D18" s="2">
         <v>9084782474.711462</v>
-      </c>
-      <c r="C18" s="2">
-        <v>273181.8365978022</v>
-      </c>
-      <c r="D18" s="2">
-        <v>4408073684977.941</v>
       </c>
     </row>
     <row r="19">
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="B19" s="2">
+        <v>522.66799844433</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2099541.303470341</v>
+      </c>
+      <c r="D19" s="2">
         <v>95314.12526331794</v>
-      </c>
-      <c r="C19" s="2">
-        <v>522.66799844433</v>
-      </c>
-      <c r="D19" s="2">
-        <v>2099541.303470341</v>
       </c>
     </row>
     <row r="20">
@@ -733,13 +733,13 @@
         </is>
       </c>
       <c r="B20" s="2">
+        <v>0.2322168932734815</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2.908637583380523</v>
+      </c>
+      <c r="D20" s="2">
         <v>0.8305946543231043</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.2322168932734815</v>
-      </c>
-      <c r="D20" s="2">
-        <v>2.908637583380523</v>
       </c>
     </row>
     <row r="21">
@@ -749,13 +749,13 @@
         </is>
       </c>
       <c r="B21" s="2">
+        <v>-1.126095808282854</v>
+      </c>
+      <c r="C21" s="2">
+        <v>8.520720283210313</v>
+      </c>
+      <c r="D21" s="2">
         <v>-0.3788124117308791</v>
-      </c>
-      <c r="C21" s="2">
-        <v>-1.126095808282854</v>
-      </c>
-      <c r="D21" s="2">
-        <v>8.520720283210313</v>
       </c>
     </row>
     <row r="22">
@@ -765,13 +765,13 @@
         </is>
       </c>
       <c r="B22" s="2">
+        <v>0.4770168084254328</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2.067047545723518</v>
+      </c>
+      <c r="D22" s="2">
         <v>0.8597047974043315</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.4770168084254328</v>
-      </c>
-      <c r="D22" s="2">
-        <v>2.067047545723518</v>
       </c>
     </row>
     <row r="23">
@@ -781,13 +781,13 @@
         </is>
       </c>
       <c r="B23" s="2">
+        <v>342.39</v>
+      </c>
+      <c r="C23" s="2">
+        <v>6217</v>
+      </c>
+      <c r="D23" s="2">
         <v>11158</v>
-      </c>
-      <c r="C23" s="2">
-        <v>342.39</v>
-      </c>
-      <c r="D23" s="2">
-        <v>6217</v>
       </c>
     </row>
     <row r="24">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="B24" s="2">
+        <v>2026.83</v>
+      </c>
+      <c r="C24" s="2">
+        <v>10374001</v>
+      </c>
+      <c r="D24" s="2">
         <v>323560</v>
-      </c>
-      <c r="C24" s="2">
-        <v>2026.83</v>
-      </c>
-      <c r="D24" s="2">
-        <v>10374001</v>
       </c>
     </row>
     <row r="25">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="B25" s="2">
+        <v>1024.7</v>
+      </c>
+      <c r="C25" s="2">
+        <v>117579</v>
+      </c>
+      <c r="D25" s="2">
         <v>81368</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1024.7</v>
-      </c>
-      <c r="D25" s="2">
-        <v>117579</v>
       </c>
     </row>
     <row r="26">
@@ -829,13 +829,13 @@
         </is>
       </c>
       <c r="B26" s="2">
+        <v>14</v>
+      </c>
+      <c r="C26" s="2">
+        <v>63</v>
+      </c>
+      <c r="D26" s="2">
         <v>23</v>
-      </c>
-      <c r="C26" s="2">
-        <v>14</v>
-      </c>
-      <c r="D26" s="2">
-        <v>63</v>
       </c>
     </row>
     <row r="27">
@@ -843,507 +843,507 @@
         <v>18598</v>
       </c>
       <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8">
+      <c r="C27" s="8">
         <v>6217</v>
       </c>
+      <c r="D27" s="8"/>
     </row>
     <row r="28">
       <c r="A28" s="7">
         <v>18963</v>
       </c>
       <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8">
+      <c r="C28" s="8">
         <v>12496</v>
       </c>
+      <c r="D28" s="8"/>
     </row>
     <row r="29">
       <c r="A29" s="7">
         <v>19329</v>
       </c>
       <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8">
+      <c r="C29" s="8">
         <v>17394</v>
       </c>
+      <c r="D29" s="8"/>
     </row>
     <row r="30">
       <c r="A30" s="7">
         <v>19694</v>
       </c>
       <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8">
+      <c r="C30" s="8">
         <v>21324</v>
       </c>
+      <c r="D30" s="8"/>
     </row>
     <row r="31">
       <c r="A31" s="7">
         <v>20059</v>
       </c>
       <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8">
+      <c r="C31" s="8">
         <v>24517</v>
       </c>
+      <c r="D31" s="8"/>
     </row>
     <row r="32">
       <c r="A32" s="7">
         <v>20424</v>
       </c>
       <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8">
+      <c r="C32" s="8">
         <v>24927</v>
       </c>
+      <c r="D32" s="8"/>
     </row>
     <row r="33">
       <c r="A33" s="7">
         <v>20790</v>
       </c>
       <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8">
+      <c r="C33" s="8">
         <v>28019</v>
       </c>
+      <c r="D33" s="8"/>
     </row>
     <row r="34">
       <c r="A34" s="7">
         <v>21155</v>
       </c>
       <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8">
+      <c r="C34" s="8">
         <v>30320</v>
       </c>
+      <c r="D34" s="8"/>
     </row>
     <row r="35">
       <c r="A35" s="7">
         <v>21520</v>
       </c>
       <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8">
+      <c r="C35" s="8">
         <v>37962</v>
       </c>
+      <c r="D35" s="8"/>
     </row>
     <row r="36">
       <c r="A36" s="7">
         <v>21885</v>
       </c>
       <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8">
+      <c r="C36" s="8">
         <v>48712</v>
       </c>
+      <c r="D36" s="8"/>
     </row>
     <row r="37">
       <c r="A37" s="7">
         <v>22251</v>
       </c>
       <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8">
+      <c r="C37" s="8">
         <v>57229</v>
       </c>
+      <c r="D37" s="8"/>
     </row>
     <row r="38">
       <c r="A38" s="7">
         <v>22616</v>
       </c>
       <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8">
+      <c r="C38" s="8">
         <v>35606</v>
       </c>
+      <c r="D38" s="8"/>
     </row>
     <row r="39">
       <c r="A39" s="7">
         <v>22981</v>
       </c>
       <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8">
+      <c r="C39" s="8">
         <v>31355</v>
       </c>
+      <c r="D39" s="8"/>
     </row>
     <row r="40">
       <c r="A40" s="7">
         <v>23346</v>
       </c>
       <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8">
+      <c r="C40" s="8">
         <v>34225</v>
       </c>
+      <c r="D40" s="8"/>
     </row>
     <row r="41">
       <c r="A41" s="7">
         <v>23712</v>
       </c>
       <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8">
+      <c r="C41" s="8">
         <v>39954</v>
       </c>
+      <c r="D41" s="8"/>
     </row>
     <row r="42">
       <c r="A42" s="7">
         <v>24077</v>
       </c>
       <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8">
+      <c r="C42" s="8">
         <v>47332</v>
       </c>
+      <c r="D42" s="8"/>
     </row>
     <row r="43">
       <c r="A43" s="7">
         <v>24442</v>
       </c>
       <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8">
+      <c r="C43" s="8">
         <v>55871</v>
       </c>
+      <c r="D43" s="8"/>
     </row>
     <row r="44">
       <c r="A44" s="7">
         <v>24807</v>
       </c>
       <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8">
+      <c r="C44" s="8">
         <v>41936</v>
       </c>
+      <c r="D44" s="8"/>
     </row>
     <row r="45">
       <c r="A45" s="7">
         <v>25173</v>
       </c>
       <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8">
+      <c r="C45" s="8">
         <v>36125</v>
       </c>
+      <c r="D45" s="8"/>
     </row>
     <row r="46">
       <c r="A46" s="7">
         <v>25538</v>
       </c>
       <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8">
+      <c r="C46" s="8">
         <v>52676</v>
       </c>
+      <c r="D46" s="8"/>
     </row>
     <row r="47">
       <c r="A47" s="7">
         <v>25903</v>
       </c>
       <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8">
+      <c r="C47" s="8">
         <v>66290</v>
       </c>
+      <c r="D47" s="8"/>
     </row>
     <row r="48">
       <c r="A48" s="7">
         <v>26268</v>
       </c>
       <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8">
+      <c r="C48" s="8">
         <v>74473</v>
       </c>
+      <c r="D48" s="8"/>
     </row>
     <row r="49">
       <c r="A49" s="7">
         <v>26634</v>
       </c>
       <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8">
+      <c r="C49" s="8">
         <v>76656</v>
       </c>
+      <c r="D49" s="8"/>
     </row>
     <row r="50">
       <c r="A50" s="7">
         <v>26999</v>
       </c>
       <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8">
+      <c r="C50" s="8">
         <v>80967</v>
       </c>
+      <c r="D50" s="8"/>
     </row>
     <row r="51">
       <c r="A51" s="7">
         <v>27364</v>
       </c>
       <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8">
+      <c r="C51" s="8">
         <v>78314</v>
       </c>
+      <c r="D51" s="8"/>
     </row>
     <row r="52">
       <c r="A52" s="7">
         <v>27729</v>
       </c>
       <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8">
+      <c r="C52" s="8">
         <v>81561</v>
       </c>
+      <c r="D52" s="8"/>
     </row>
     <row r="53">
       <c r="A53" s="7">
         <v>28095</v>
       </c>
       <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8">
+      <c r="C53" s="8">
         <v>77658</v>
       </c>
+      <c r="D53" s="8"/>
     </row>
     <row r="54">
       <c r="A54" s="7">
         <v>28460</v>
       </c>
       <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8">
+      <c r="C54" s="8">
         <v>87446</v>
       </c>
+      <c r="D54" s="8"/>
     </row>
     <row r="55">
       <c r="A55" s="7">
         <v>28825</v>
       </c>
       <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8">
+      <c r="C55" s="8">
         <v>113226</v>
       </c>
+      <c r="D55" s="8"/>
     </row>
     <row r="56">
       <c r="A56" s="7">
         <v>29190</v>
       </c>
       <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8">
+      <c r="C56" s="8">
         <v>114638</v>
       </c>
+      <c r="D56" s="8"/>
     </row>
     <row r="57">
       <c r="A57" s="7">
         <v>29556</v>
       </c>
       <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8">
+      <c r="C57" s="8">
         <v>115993</v>
       </c>
+      <c r="D57" s="8"/>
     </row>
     <row r="58">
       <c r="A58" s="7">
         <v>29921</v>
       </c>
       <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8">
+      <c r="C58" s="8">
         <v>117579</v>
       </c>
+      <c r="D58" s="8"/>
     </row>
     <row r="59">
       <c r="A59" s="7">
         <v>30286</v>
       </c>
       <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8">
+      <c r="C59" s="8">
         <v>121233</v>
       </c>
+      <c r="D59" s="8"/>
     </row>
     <row r="60">
       <c r="A60" s="7">
         <v>30651</v>
       </c>
       <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8">
+      <c r="C60" s="8">
         <v>136695</v>
       </c>
+      <c r="D60" s="8"/>
     </row>
     <row r="61">
       <c r="A61" s="7">
         <v>31017</v>
       </c>
-      <c r="B61" s="8">
+      <c r="B61" s="8"/>
+      <c r="C61" s="8">
+        <v>164286</v>
+      </c>
+      <c r="D61" s="8">
         <v>11158</v>
-      </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8">
-        <v>164286</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="7">
         <v>31382</v>
       </c>
-      <c r="B62" s="8">
+      <c r="B62" s="8"/>
+      <c r="C62" s="8">
+        <v>200482</v>
+      </c>
+      <c r="D62" s="8">
         <v>13366</v>
-      </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8">
-        <v>200482</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="7">
         <v>31747</v>
       </c>
-      <c r="B63" s="8">
+      <c r="B63" s="8"/>
+      <c r="C63" s="8">
+        <v>212201</v>
+      </c>
+      <c r="D63" s="8">
         <v>16019</v>
-      </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8">
-        <v>212201</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="7">
         <v>32112</v>
       </c>
-      <c r="B64" s="8">
+      <c r="B64" s="8"/>
+      <c r="C64" s="8">
+        <v>219935</v>
+      </c>
+      <c r="D64" s="8">
         <v>18513</v>
-      </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8">
-        <v>219935</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="7">
         <v>32478</v>
       </c>
-      <c r="B65" s="8">
+      <c r="B65" s="8"/>
+      <c r="C65" s="8">
+        <v>235724</v>
+      </c>
+      <c r="D65" s="8">
         <v>21050</v>
-      </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8">
-        <v>235724</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="7">
         <v>32843</v>
       </c>
-      <c r="B66" s="8">
+      <c r="B66" s="8"/>
+      <c r="C66" s="8">
+        <v>266490</v>
+      </c>
+      <c r="D66" s="8">
         <v>24067</v>
-      </c>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8">
-        <v>266490</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="7">
         <v>33208</v>
       </c>
-      <c r="B67" s="8">
+      <c r="B67" s="8"/>
+      <c r="C67" s="8">
+        <v>293710</v>
+      </c>
+      <c r="D67" s="8">
         <v>30984</v>
-      </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8">
-        <v>293710</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="7">
         <v>33573</v>
       </c>
-      <c r="B68" s="8">
+      <c r="B68" s="8"/>
+      <c r="C68" s="8">
+        <v>314948</v>
+      </c>
+      <c r="D68" s="8">
         <v>38041</v>
-      </c>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8">
-        <v>314948</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="7">
         <v>33939</v>
       </c>
-      <c r="B69" s="8">
+      <c r="B69" s="8"/>
+      <c r="C69" s="8">
+        <v>348337</v>
+      </c>
+      <c r="D69" s="8">
         <v>50367</v>
-      </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8">
-        <v>348337</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="7">
         <v>34304</v>
       </c>
-      <c r="B70" s="8">
+      <c r="B70" s="8"/>
+      <c r="C70" s="8">
+        <v>434895</v>
+      </c>
+      <c r="D70" s="8">
         <v>60746</v>
-      </c>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8">
-        <v>434895</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="7">
         <v>34669</v>
       </c>
-      <c r="B71" s="8">
+      <c r="B71" s="8"/>
+      <c r="C71" s="8">
+        <v>521810</v>
+      </c>
+      <c r="D71" s="8">
         <v>69983</v>
-      </c>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8">
-        <v>521810</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="7">
         <v>35034</v>
       </c>
-      <c r="B72" s="8">
+      <c r="B72" s="8"/>
+      <c r="C72" s="8">
+        <v>624220</v>
+      </c>
+      <c r="D72" s="8">
         <v>81368</v>
-      </c>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8">
-        <v>624220</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="7">
         <v>35400</v>
       </c>
-      <c r="B73" s="8">
+      <c r="B73" s="8"/>
+      <c r="C73" s="8">
+        <v>740799</v>
+      </c>
+      <c r="D73" s="8">
         <v>95385</v>
-      </c>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8">
-        <v>740799</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="7">
         <v>35765</v>
       </c>
-      <c r="B74" s="8">
+      <c r="B74" s="8"/>
+      <c r="C74" s="8">
+        <v>865114</v>
+      </c>
+      <c r="D74" s="8">
         <v>112011</v>
-      </c>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8">
-        <v>865114</v>
       </c>
     </row>
     <row r="75">
@@ -1351,13 +1351,13 @@
         <v>36130</v>
       </c>
       <c r="B75" s="8">
+        <v>342.39</v>
+      </c>
+      <c r="C75" s="8">
+        <v>987595</v>
+      </c>
+      <c r="D75" s="8">
         <v>129477</v>
-      </c>
-      <c r="C75" s="8">
-        <v>342.39</v>
-      </c>
-      <c r="D75" s="8">
-        <v>987595</v>
       </c>
     </row>
     <row r="76">
@@ -1365,13 +1365,13 @@
         <v>36495</v>
       </c>
       <c r="B76" s="8">
+        <v>438.35</v>
+      </c>
+      <c r="C76" s="8">
+        <v>1144408</v>
+      </c>
+      <c r="D76" s="8">
         <v>143412</v>
-      </c>
-      <c r="C76" s="8">
-        <v>438.35</v>
-      </c>
-      <c r="D76" s="8">
-        <v>1144408</v>
       </c>
     </row>
     <row r="77">
@@ -1379,13 +1379,13 @@
         <v>36861</v>
       </c>
       <c r="B77" s="8">
+        <v>572.71</v>
+      </c>
+      <c r="C77" s="8">
+        <v>1339523</v>
+      </c>
+      <c r="D77" s="8">
         <v>167493</v>
-      </c>
-      <c r="C77" s="8">
-        <v>572.71</v>
-      </c>
-      <c r="D77" s="8">
-        <v>1339523</v>
       </c>
     </row>
     <row r="78">
@@ -1393,13 +1393,13 @@
         <v>37226</v>
       </c>
       <c r="B78" s="8">
+        <v>791.02</v>
+      </c>
+      <c r="C78" s="8">
+        <v>1638604</v>
+      </c>
+      <c r="D78" s="8">
         <v>179558</v>
-      </c>
-      <c r="C78" s="8">
-        <v>791.02</v>
-      </c>
-      <c r="D78" s="8">
-        <v>1638604</v>
       </c>
     </row>
     <row r="79">
@@ -1407,13 +1407,13 @@
         <v>37591</v>
       </c>
       <c r="B79" s="8">
+        <v>767.73</v>
+      </c>
+      <c r="C79" s="8">
+        <v>1890364</v>
+      </c>
+      <c r="D79" s="8">
         <v>199063</v>
-      </c>
-      <c r="C79" s="8">
-        <v>767.73</v>
-      </c>
-      <c r="D79" s="8">
-        <v>1890364</v>
       </c>
     </row>
     <row r="80">
@@ -1421,13 +1421,13 @@
         <v>37956</v>
       </c>
       <c r="B80" s="8">
+        <v>727.63</v>
+      </c>
+      <c r="C80" s="8">
+        <v>2171525</v>
+      </c>
+      <c r="D80" s="8">
         <v>221016</v>
-      </c>
-      <c r="C80" s="8">
-        <v>727.63</v>
-      </c>
-      <c r="D80" s="8">
-        <v>2171525</v>
       </c>
     </row>
     <row r="81">
@@ -1435,13 +1435,13 @@
         <v>38322</v>
       </c>
       <c r="B81" s="8">
+        <v>922.91</v>
+      </c>
+      <c r="C81" s="8">
+        <v>2639647</v>
+      </c>
+      <c r="D81" s="8">
         <v>256572</v>
-      </c>
-      <c r="C81" s="8">
-        <v>922.91</v>
-      </c>
-      <c r="D81" s="8">
-        <v>2639647</v>
       </c>
     </row>
     <row r="82">
@@ -1449,13 +1449,13 @@
         <v>38687</v>
       </c>
       <c r="B82" s="8">
+        <v>1126.49</v>
+      </c>
+      <c r="C82" s="8">
+        <v>3164929</v>
+      </c>
+      <c r="D82" s="8">
         <v>286765</v>
-      </c>
-      <c r="C82" s="8">
-        <v>1126.49</v>
-      </c>
-      <c r="D82" s="8">
-        <v>3164929</v>
       </c>
     </row>
     <row r="83">
@@ -1463,87 +1463,142 @@
         <v>39052</v>
       </c>
       <c r="B83" s="8">
+        <v>1235.8</v>
+      </c>
+      <c r="C83" s="8">
+        <v>3876020</v>
+      </c>
+      <c r="D83" s="8">
         <v>323560</v>
-      </c>
-      <c r="C83" s="8">
-        <v>1235.8</v>
-      </c>
-      <c r="D83" s="8">
-        <v>3876020</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="7">
         <v>39417</v>
       </c>
-      <c r="B84" s="8"/>
+      <c r="B84" s="8">
+        <v>1482.71</v>
+      </c>
       <c r="C84" s="8">
-        <v>1482.71</v>
-      </c>
-      <c r="D84" s="8">
         <v>5132178</v>
       </c>
+      <c r="D84" s="8"/>
     </row>
     <row r="85">
       <c r="A85" s="7">
         <v>39783</v>
       </c>
-      <c r="B85" s="8"/>
+      <c r="B85" s="8">
+        <v>1598.61</v>
+      </c>
       <c r="C85" s="8">
-        <v>1598.61</v>
-      </c>
-      <c r="D85" s="8">
         <v>6133035</v>
       </c>
+      <c r="D85" s="8"/>
     </row>
     <row r="86">
       <c r="A86" s="7">
         <v>40148</v>
       </c>
-      <c r="B86" s="8"/>
+      <c r="B86" s="8">
+        <v>1639.54</v>
+      </c>
       <c r="C86" s="8">
-        <v>1639.54</v>
-      </c>
-      <c r="D86" s="8">
         <v>6851830</v>
       </c>
+      <c r="D86" s="8"/>
     </row>
     <row r="87">
       <c r="A87" s="7">
         <v>40513</v>
       </c>
-      <c r="B87" s="8"/>
+      <c r="B87" s="8">
+        <v>2026.83</v>
+      </c>
       <c r="C87" s="8">
-        <v>2026.83</v>
-      </c>
-      <c r="D87" s="8">
         <v>8310151</v>
       </c>
+      <c r="D87" s="8"/>
     </row>
     <row r="88">
       <c r="A88" s="7">
         <v>40878</v>
       </c>
-      <c r="B88" s="8"/>
+      <c r="B88" s="8">
+        <v>1667.1</v>
+      </c>
       <c r="C88" s="8">
-        <v>1667.1</v>
-      </c>
-      <c r="D88" s="8">
         <v>10374001</v>
       </c>
+      <c r="D88" s="8"/>
     </row>
     <row r="89">
       <c r="A89" s="7">
         <v>41244</v>
       </c>
       <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8">
+      <c r="C89" s="8">
         <v>866666</v>
       </c>
+      <c r="D89" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>89</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Govt Revenue - Tax ; Individual Income</Name>
+          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
+          <SeriesId>310901701</SeriesId>
+          <Code>SR4825055</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>3</InitCol>
+          <EndRow>89</EndRow>
+          <EndCol>3</EndCol>
+          <Name>Govt Revenue</Name>
+          <DisplayName>Govt Revenue</DisplayName>
+          <SeriesId>310901801</SeriesId>
+          <Code>SR4825071</Code>
+          <Order>1</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>4</InitCol>
+          <EndRow>89</EndRow>
+          <EndCol>4</EndCol>
+          <Name>Value Added in Industry</Name>
+          <DisplayName>Value Added in Industry</DisplayName>
+          <SeriesId>310902601</SeriesId>
+          <Code>SR4825076</Code>
+          <Order>2</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3145EF4D-DA45-4E7B-9D2E-182D0E935D1C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_92.xlsx
+++ b/Testdata/TC_92.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>bDUAAB+LCAAAAAAAAAPtW1tvG8cV/isLPrVAqb3oRqnjDShSUolQF4h0bOXFGO4OpamWu+zOriS+uQ+BAdcuUNQxkLRN6wBFgwCN/ZAWrh20/yUwZeepf6FnZvbKi8VV3EABGBgI59zmzJlz+XaxQu+d9xzllPiMeu6Nkr6glRTiWp5N3aMbpTDolvWV0nsm2jy3iLOPfdwjAQgroOWy9XNGb5SOg6C/rqpnZ2cLZ4sLnn+kGpqmq7d3mi3rmPRwmboswK5FSomWfblWyUQ1u7dDAmzjAEvNG6VGq7FQI9SqA20Hu/iI+AsbIaMuYWzTDWhACeOaPsEBqdV3PpAHM42FlQUdqWP0VHIjpI4t5XKSkh7JwbakTXvENDRDK2uVsqG19dX1JWNdX1wwllY/jBUTQdTELGgR/5RagtAKcK8v1LWKoemrS4a+iNSJQmArDYCJ9hz7gJxSRuwacRxWKCJqdIFVK4BTFwumhtSMbmTo6i5s+7h/3KaBQ4qqb3k+sSBQV9p7l5zt+VH82v0mcNvH1A8GdTwobOsmI/5en0ejmKqJ6p4bVB3iBzf7cKnEhjsHhhn4IUHqFGaqVKfMgt/UDYltdrHDsko5Jrrl+Sesjy2yCwWrchtnruNhGzIroCygVrrpGAPt+14fLMLmG55jb4HVSHgCI7HccCHEfNsNzztJvZvERCIHRDbAnfZwEIuP0VHr2Dvbc51BK+wwy6cdYtc3YumJPMQrL9KuhSzweuBFSkKSlqEM4D+otFEyqhOL9rCz70AQmQk1miegahh4XRrUPCfsuSz2aYSKbsGJ2uQ8OWGyRntwuS4Puuc23FhehnkiK69w4J0le44zRBAy5Cqz4useZ4wK14EWX984R9wIP+UWdWAQZO8iQ81nReuYkGBiSkgO4j1vi48Ws+o4SE2XCNISUhvcMDWYDmXxr61p6+IfbJuw0aZrT5eLmWg37O11oHxPxYFMHXgjJARHcDYc7J4A9RYNjnersesTOEgeeKr8OA9BofYdPBDkJChZGmq4lhPaRNZ/w+2KjOS+yTucykZjpCaUtImwO2gP+tBvGV0P4MeNEkzgdRb4MONLpuWFbuAPeKNAaiR6mQ4LO67YADsz63R98qsQoMVgK3StmmfPvpsto3PTpcHsHnqhL7vf7CoierwRhqxOeEsRPX5mfavImZhfSLznkp7nUmv2aEOQuff2FQ7C4qqaWYPI+ppZ3oExLqccr/WZ1XzAhTDXCm1TZcyzqEjWqDzsjL46pWTqpItDBzBZABP1KGm1o2RUZSejMlkSuuk7ccMzOeJlAHktu7dgAVbgsG7B8nqcoALSvNVCalaeAx6LbLpHTewehQApkr4ySk/aLR+HbR+7jB8nQRAjnXeyEIr7lEQ2pmxee6FIBNm8POAidUQOtUmv7/nY2YHA0K0o7SJ4BMhjBwfH0QpGmUOsOMhqqppo5T2LHb9MTMwkeQxe8FGbHCEKIX4WCa5TmZSG+Cl3oCydGnZox5ddNZ7ck3hwYSkWjPsvP1xBXBjfATxgwbB9nww46k4XEV2krB4zZALzRmq2DpYqxrK2vAxAhq+ROPG2dxooAHkJQEKlrLTxufJzpeHa9JTaIXbgJyQfnEyGJxpBhTSzOmgr7u/ChSr4mafkBQBWHFEYH+OCCSdVMA8J9p1BRlAeselZIHfx6D/DF3+8ePTP4Ud/Lb/+4rfD+0/++82nr55/+erFC0mVZ5TSqI07DhEetTcqFW1xCRIsISEeVVVAYDu0AkE7PBTIN1mj6ElNLGqbjdp2c0M0koQYq8tZovKHwIEXpsuWPIXYSNylGqeAFDHbcWOK1jluZjaZ/KHslOSls/xpijIWr1/+7fXLv0/VjgKWgix9ba1S1o1LMRg82OpjcgkGa+aaPxdeKmvLZcPICI/IoAPZ+ZM4NWxzUdfW4AFa05MmbidZPElolBVZauMjdURPkmoSFyUpkF3HTJH5bcKChC1rIbOIcvQfv3nz9OOcVBTdiJK3As4J/MI3U+OFML170FZaezcPaptKe7PF8yTlZeSk8bcIR7snBZVLKteFKv+ZAlMdpphSgiefkuJ1FYKtY2UApZgpxFyyTaLKja5octTLbd8L+/JGMgopdYJk0k4makxoNoIn4jnWdVLWBHHp6/BfX09SiA5ST5GsebCzofTcJC8FDeU4kpThR1X7yb9fPb/Hm9uz3w2f/zpnIdonefyHPIdqyi6TtIeWFw2aEQq61RLBPNHuZAZLRORPUPsedQNm6kvi4SlaIVDVuTXxf9TowawThkW8gD5CQb/AbPM8iArb3EVqngB+9jGMWS99xkwIsoencf3uT59d/OHri8fP3tz7cnj/i+GDx69f/vnNV09k1V18/Ozi4VdRlx8dBMIX/uQq0Z8i3oNYCq9GhQ9t5du7v1dcL1AAayih6Ejf3v0kY4w7KlBJahmwXOJI3oUx0awy11MyriQ+5PQSFTn5a3yELSYS0RDz+tRKN/mwzE3xuhOMnzTa5ZARxQMY9VM4SV44VZ5VL1KRI3V/VTN0I+JKb/gROphlQr/teB2AETFDvGgYEclpvV0hlRX7bTf3NqrNVEQ6sefbxOdpKH+gBovRZJxeGQpwAeVZocPfB42JjbNQ/CvTutToxUq3avOWN/m9RE4C1ULflyjIjV7It8I+IN/49dt0vnglmQG7uxKYZuFvum7U83xYZ7gw/PJsThB80Y4ilmxNDcbf4UjsustDky6Bl3uNCeGI3rlLdAVIkvgq7zWbvu/5ExtOyonFdgA2QxdR04gnMirfUkJsO72rmBA3uXcFtVf1qVD7MkB9HWHzHCC/K4C8rM0IkI0fCCBXZgHIlTlAngPkOUCeCJD16QBZv5MZB+MAeWVxDpDnAPlHBZD1OUC+zgB5pOFcZ4C8kgPIH2AnJArcI7EV6vJ3ySGDMT4JK08VvR6w+c2TB6+efzr8/LPh/b8M734zR87vCjlXlmZDztrKD4OcjZUZkLMUmiPnOXK+Tsi5+f7BFOQcc96KnC8eP/3u3oPhR8+GD58MH35+8fTR94TQxnQIbdzJDIxxCG3MIfQcQv+4ILQxh9DXGUKPNJz/C4RW0w9Bkl7o1YlDgsIfPcfaO97plXXh7ouqNtieY0fBLPYtSxKW1ED2y2+eKEWdqfo+4Cf+qWjhT7Wb1D1pFDu92cHW0ppu4VVrtWuvVbC9trZoLVsW6ZIuNEJAkMIo/7SJm+gByOYfBhXbBFBjXj39iOsAu0cFrckAC0X+oRNEShRk1NiTNdqiPgtu80kZ/ZKUw4RyKDH0bTP6o4Tbcn1oViqSAAJqdjM153XcXwL5RwKe06Q9WvBjKC1uQnkjkAb9vgSZRS8UZt4uOQcInLEA3brzS5hn8uvBItZkVUGTT/RjW62wU9icGivvA58n1tW0N23AZVfXFp/cU+d7OCCQ11VNNFxGj46DovdqQGGSFWKUja5llZdgUYZp3CnbuLuma1p30V42+OfSkXGYDpScFdyEzxTK4AGjuJ468jdT5v8ArS8eEGw1AAA=</t>
+          <t>CjQAAB+LCAAAAAAAAAPtW1tvG8cV/isLPrVAqb1IpCh1vAFFSgoRSjREOrbyYgx3R9JWy1l2Z1cS39yHwIBrFyjqGEjapnWAokGAxn5IC9cJ2v8SmLLz1L/QMzN75cXmum5gAzQMmHNuc+bMmXO+WYzRexcDVzkjPnM8eqWkr2glhVDLsx16fKUUBkdlvVp6z0TbFxZxr2IfD0gAwgpoUbZ5wZwrpZMgGG6q6vn5+cr56ornH6uGpunqjb121zohA1x2KAswtUgp0bJfrVUyUcMe7JEA2zjAUvNKqdVtrTSIYzWBtocpPib+ylbIHEoY26aBEziEcU2f4IA0mnsfyoWZxkp1RUfqFD2V3Aod15ZyOUlJj+RgWtJzBsQ0NL1W1o2ytt7Ttc216qahreha5aNYMRFEbcyCLvHPHEsQugEeDIW6bmjrurZWNTSkzhQCW2kATNRx7QNy5jBiN4jrskIRUaMNrFsBrLpYMMG9jG5k6PVd2PXx8KTnBC4pqr7j+cSCQL3W3PvkvONH8esN28DtnTh+MGriUWFb1xjxO0MejWKqJmp6NKi7xA+uDWFTiQ17Dgwz8EOC1DnMVKnpMAt+OzQktnmEXZZVyjHRdc8/ZUNskX04sCq3cU5dD9uQWYHDAsdKJ51ioKu+NwSLMPmW59o7YDUSnsFILLcohJhPu+V5p6l3s5hI5IDIBtjTAQ5i8Sk66p545x3qjrphn1m+0yd2cyuWnslD/ORF2o2QBd4AvEhJSNIylBH8gZM2SUZNYjkD7F51IYjMXAUrOQKqh4F35AQNzw0HlMU+TVDRdVhRj1wkK0zGqAObS3nQPdqisbwM80xWXuHAO0/mnGaIIGTIdWbF2z3NmBRuAi3evmmO2BG+yh3HhUaQ3YsMNZ8V3RNCgpkpITmI17wd3lrMuusiNR0iSEtIbXDD1KA7lMXfnqZtir8wbcJG29SeLxcz0X446PTh+J6JBZk68CZICJbgbrmYngL1uhOc7Ndj12dwkFzwXPlpHoKDOnTxSJCToGRpqEUtN7SJPP8teiQykvsm93AuG02R2nCkTYTpqDcaQr1lzmYAP66UoANvssCHHl8yLS+kgT/ihQKpkeirdFjYp2IC7C6sc+STX4YALUY7IbUanr34bLaMzjXqBIt76IW+rH6Lq4jo8UIYsibhJUXU+IX1rSJrYn4h8QElA4861uLRhiBz7+3XWAiLT9XCGkSer4XlXWjjssvxs76wmg+4EPpaoWnqjHmWI5I1Oh52Rl+dc2Sa5AiHLmCyADrqcVJqJ8mozk4nZbIkdM1344JncsTLAPJa9mDFAqzAYd2K5Q04QQWkeb2L1Kw8BzwW2abHbUyPQ4AUSV2ZpCfllrfDno8p48tJEMRE5Z0thOI6JZGNKYtXJxSJIIuXB1ykTsihHhkMPR+7exAYZydKuwgeAfLYw8FJNIJW5hIrDrKaqiZaec9ix18lJnqSXAY/8FGZnCAKIb4WCa5TmZSG+Cr34Fi6Dew6fV9W1bhzz+LBhqVYMK6/fHEFcWG8B3DBgmb7ARlx1J0OIrpIWT1myATmhdTsHqzVjIq2XgUgw8dIrPhD7IZEqds2sRWHKi1qA8jxAezIeEQ95+WiWSG0E1dwMUkdPMlT8gIAHI4daBDTggknVTAPCfbdUUZQLqLtWSD34uHdZ08+G3/x+fjOn8e3vpMrkCzUw32XiOl7W7WatroG+ZKQEA+SKhCtHVqBoB0eCiCbjFF08RKDxnarsdveEnUhIcbqsjWo/E438sJ02JUui4nE1qjxjkoRsxfXmWic42ZajcnvWGckL53lz1OUsXj+7V+ff/u3udpRwFLMpG/U1sQl9hWQCi7m1Sm5BFK1c7WcX23XylqlbBgZ4QkZdCALeRKnlm2u6tqGZlQ1PanJdpKjs4QmWZGlHj5WJ/QkqSFhTpIC2XHMFGneIyxI2DLxMwMZxMu///rFo09yUlF0I0reCjgn4AifTI0HwvT+QU/pdq4dNLaV3naX50nKy8hJ4y8RjmZPTk8uqSgNsfszBZo0NCWlBBeZkuIdKQRbJ8oIzl3m1OWSbRZVTvSaJie93PW9cCh3JKOQUmdIJrVjpsaMyiJ4Ip5TJSZlzRCXvo7/+c0shWghzRSYmu0PDpQBTfJS0FCOI0kZfnRqP/3Xsye3Lx88+uH23fHHj8f3Ho7vfXH56H7OVDRhcq2HhIdjlR0m+Q+1L2ogExR0vSuieqrdzDSMiMhvRlc9hwbMNFbFpSgaIVDVuTXxL2oNoIcJwyJwQJ+goPcx274IohNu7iM1TwA/hxjap5feHROCLOZpgH/44+eXv//m8sHjF7e/Gt/5cnz3wfNv//Ti64fy+F1+8vjy3tdRuZ/sCMIXfiOVqE4R3zcshR9LhTdj5ftbv1OoFyiAIZRQlKbvb32aMcYdFWgjtQwYLXEk78KUaFaZ6ykZVxIfcnqJiuzoDd7LVhOJqJt5Q8dKJ/mozE3xAygYP2n1yiEjigfw6KewkrxwqryoXqQie+vVdc3QjYgrveFL6GOWCf2u6/Wxq8QM8QFhQiSn9XKFVFbMt9vubNXbqYh0ouPbxOdpKH+gGCPy3tJi8ShOtQwFuIDkrNDl33ymxKZZieVMPVOjjydHgJwgnLO/PeQkUCP0fYmDaPTRvRsOAd3Gn9jm88Vnxwyg3ZfgMwtx03GrmefDOMOFjphnc4LgixoVsWS9ajH+nUbi030emnQIvNynSghH9F1dQq4zB7ZE5XVn2/c9f2bxSTmx2B5AY6goahrxREbsqYTRdrpXMSEueG8KTlcqOTi9650FygE5IxSgclnp4Qvl5xwpO7BMaIbwE+5yZBa6XlTz7QDbl/f/PX76h8v7/xh//Jfy8y9/M77z8D/fffbsyVfPnj6V1CX+flP4e6O2GP7W9R8Hf+vrC+BvKbTE30v8/Tbh74O9rTn4O+a8FH/z4vb4t+Mnv/ofYbc+H3brNzONZRp262tL2L2E3e8U7NaXsPtdgd0Txectht3r+lzY/Spw/TZC6CVYflNguaItCJaNHwks1xYBy7UlWF6C5SVYngmWjflg2biZaQfTYLm6/Ea9BMvvFlg2lmD5XQHLE8Xn/wKW1fSxSFIXvSZxSVD4YXSsveedvbYu7H1R1RbruHYUzGLvXZKwpAayr8N5ohR1pu77AKH4c9LCz7nbDj1tFVu9qdurxlpN61cI0Umlv7FasUjNquB+v1rVNmBt0ih//sRNDABn88dDBSdBal49feh1gOlxQWsywEKRP4aCSEVvw3ccnwU3eJuMfknKYUI5lLj5Bn8FLX+I8aFZq0kCCKhZ62rOzbigBPJ/Dnhu2xk4BV9IaXHVyRuBfR8OJbAsuoPQ8PbJBcDejAUo1f1fQDOTTwqLWJPHCCp8os+f8TLn+CQo6phmaGTdslbLFdI3ymurlY1yrWqslY8sHZMNo6pXamv8EXBkHOqZQ84LTqLGG5b+jx7zvzwmbkcKNAAA</t>
         </r>
       </text>
     </comment>
@@ -418,17 +418,17 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
+          <t>Value Added in Industry</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
           <t>Govt Revenue - Tax ; Individual Income</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Govt Revenue</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Value Added in Industry</t>
         </is>
       </c>
     </row>
@@ -494,17 +494,17 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
+          <t>LKR mn</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
           <t>RMB mn</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>RMB mn</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>LKR mn</t>
         </is>
       </c>
     </row>
@@ -559,13 +559,13 @@
         </is>
       </c>
       <c r="B8" s="3">
+        <v>310902601</v>
+      </c>
+      <c r="C8" s="3">
         <v>310901701</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D8" s="3">
         <v>310901801</v>
-      </c>
-      <c r="D8" s="3">
-        <v>310902601</v>
       </c>
     </row>
     <row r="9">
@@ -576,17 +576,17 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
+          <t>SR4825076</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
           <t>SR4825055</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>SR4825071</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>SR4825076</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" s="4">
+        <v>31017</v>
+      </c>
+      <c r="C12" s="4">
         <v>36130</v>
       </c>
-      <c r="C12" s="4">
+      <c r="D12" s="4">
         <v>18598</v>
-      </c>
-      <c r="D12" s="4">
-        <v>31017</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" s="4">
+        <v>39052</v>
+      </c>
+      <c r="C13" s="4">
         <v>40878</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D13" s="4">
         <v>41244</v>
-      </c>
-      <c r="D13" s="4">
-        <v>39052</v>
       </c>
     </row>
     <row r="14">
@@ -685,13 +685,13 @@
         </is>
       </c>
       <c r="B17" s="2">
+        <v>110868.4347826087</v>
+      </c>
+      <c r="C17" s="2">
         <v>1095.701428571428</v>
       </c>
-      <c r="C17" s="2">
+      <c r="D17" s="2">
         <v>1015719.888888889</v>
-      </c>
-      <c r="D17" s="2">
-        <v>110868.4347826087</v>
       </c>
     </row>
     <row r="18">
@@ -701,13 +701,13 @@
         </is>
       </c>
       <c r="B18" s="2">
+        <v>9084782474.711462</v>
+      </c>
+      <c r="C18" s="2">
         <v>273181.8365978022</v>
       </c>
-      <c r="C18" s="2">
+      <c r="D18" s="2">
         <v>4408073684977.941</v>
-      </c>
-      <c r="D18" s="2">
-        <v>9084782474.711462</v>
       </c>
     </row>
     <row r="19">
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="B19" s="2">
+        <v>95314.12526331794</v>
+      </c>
+      <c r="C19" s="2">
         <v>522.66799844433</v>
       </c>
-      <c r="C19" s="2">
+      <c r="D19" s="2">
         <v>2099541.303470341</v>
-      </c>
-      <c r="D19" s="2">
-        <v>95314.12526331794</v>
       </c>
     </row>
     <row r="20">
@@ -733,13 +733,13 @@
         </is>
       </c>
       <c r="B20" s="2">
+        <v>0.8305946543231043</v>
+      </c>
+      <c r="C20" s="2">
         <v>0.2322168932734815</v>
       </c>
-      <c r="C20" s="2">
+      <c r="D20" s="2">
         <v>2.908637583380523</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.8305946543231043</v>
       </c>
     </row>
     <row r="21">
@@ -749,13 +749,13 @@
         </is>
       </c>
       <c r="B21" s="2">
+        <v>-0.3788124117308791</v>
+      </c>
+      <c r="C21" s="2">
         <v>-1.126095808282854</v>
       </c>
-      <c r="C21" s="2">
+      <c r="D21" s="2">
         <v>8.520720283210313</v>
-      </c>
-      <c r="D21" s="2">
-        <v>-0.3788124117308791</v>
       </c>
     </row>
     <row r="22">
@@ -765,13 +765,13 @@
         </is>
       </c>
       <c r="B22" s="2">
+        <v>0.8597047974043315</v>
+      </c>
+      <c r="C22" s="2">
         <v>0.4770168084254328</v>
       </c>
-      <c r="C22" s="2">
+      <c r="D22" s="2">
         <v>2.067047545723518</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0.8597047974043315</v>
       </c>
     </row>
     <row r="23">
@@ -781,13 +781,13 @@
         </is>
       </c>
       <c r="B23" s="2">
+        <v>11158</v>
+      </c>
+      <c r="C23" s="2">
         <v>342.39</v>
       </c>
-      <c r="C23" s="2">
+      <c r="D23" s="2">
         <v>6217</v>
-      </c>
-      <c r="D23" s="2">
-        <v>11158</v>
       </c>
     </row>
     <row r="24">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="B24" s="2">
+        <v>323560</v>
+      </c>
+      <c r="C24" s="2">
         <v>2026.83</v>
       </c>
-      <c r="C24" s="2">
+      <c r="D24" s="2">
         <v>10374001</v>
-      </c>
-      <c r="D24" s="2">
-        <v>323560</v>
       </c>
     </row>
     <row r="25">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="B25" s="2">
+        <v>81368</v>
+      </c>
+      <c r="C25" s="2">
         <v>1024.7</v>
       </c>
-      <c r="C25" s="2">
+      <c r="D25" s="2">
         <v>117579</v>
-      </c>
-      <c r="D25" s="2">
-        <v>81368</v>
       </c>
     </row>
     <row r="26">
@@ -829,13 +829,13 @@
         </is>
       </c>
       <c r="B26" s="2">
+        <v>23</v>
+      </c>
+      <c r="C26" s="2">
         <v>14</v>
       </c>
-      <c r="C26" s="2">
+      <c r="D26" s="2">
         <v>63</v>
-      </c>
-      <c r="D26" s="2">
-        <v>23</v>
       </c>
     </row>
     <row r="27">
@@ -843,507 +843,507 @@
         <v>18598</v>
       </c>
       <c r="B27" s="8"/>
-      <c r="C27" s="8">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8">
         <v>6217</v>
       </c>
-      <c r="D27" s="8"/>
     </row>
     <row r="28">
       <c r="A28" s="7">
         <v>18963</v>
       </c>
       <c r="B28" s="8"/>
-      <c r="C28" s="8">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8">
         <v>12496</v>
       </c>
-      <c r="D28" s="8"/>
     </row>
     <row r="29">
       <c r="A29" s="7">
         <v>19329</v>
       </c>
       <c r="B29" s="8"/>
-      <c r="C29" s="8">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8">
         <v>17394</v>
       </c>
-      <c r="D29" s="8"/>
     </row>
     <row r="30">
       <c r="A30" s="7">
         <v>19694</v>
       </c>
       <c r="B30" s="8"/>
-      <c r="C30" s="8">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8">
         <v>21324</v>
       </c>
-      <c r="D30" s="8"/>
     </row>
     <row r="31">
       <c r="A31" s="7">
         <v>20059</v>
       </c>
       <c r="B31" s="8"/>
-      <c r="C31" s="8">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8">
         <v>24517</v>
       </c>
-      <c r="D31" s="8"/>
     </row>
     <row r="32">
       <c r="A32" s="7">
         <v>20424</v>
       </c>
       <c r="B32" s="8"/>
-      <c r="C32" s="8">
+      <c r="C32" s="8"/>
+      <c r="D32" s="8">
         <v>24927</v>
       </c>
-      <c r="D32" s="8"/>
     </row>
     <row r="33">
       <c r="A33" s="7">
         <v>20790</v>
       </c>
       <c r="B33" s="8"/>
-      <c r="C33" s="8">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8">
         <v>28019</v>
       </c>
-      <c r="D33" s="8"/>
     </row>
     <row r="34">
       <c r="A34" s="7">
         <v>21155</v>
       </c>
       <c r="B34" s="8"/>
-      <c r="C34" s="8">
+      <c r="C34" s="8"/>
+      <c r="D34" s="8">
         <v>30320</v>
       </c>
-      <c r="D34" s="8"/>
     </row>
     <row r="35">
       <c r="A35" s="7">
         <v>21520</v>
       </c>
       <c r="B35" s="8"/>
-      <c r="C35" s="8">
+      <c r="C35" s="8"/>
+      <c r="D35" s="8">
         <v>37962</v>
       </c>
-      <c r="D35" s="8"/>
     </row>
     <row r="36">
       <c r="A36" s="7">
         <v>21885</v>
       </c>
       <c r="B36" s="8"/>
-      <c r="C36" s="8">
+      <c r="C36" s="8"/>
+      <c r="D36" s="8">
         <v>48712</v>
       </c>
-      <c r="D36" s="8"/>
     </row>
     <row r="37">
       <c r="A37" s="7">
         <v>22251</v>
       </c>
       <c r="B37" s="8"/>
-      <c r="C37" s="8">
+      <c r="C37" s="8"/>
+      <c r="D37" s="8">
         <v>57229</v>
       </c>
-      <c r="D37" s="8"/>
     </row>
     <row r="38">
       <c r="A38" s="7">
         <v>22616</v>
       </c>
       <c r="B38" s="8"/>
-      <c r="C38" s="8">
+      <c r="C38" s="8"/>
+      <c r="D38" s="8">
         <v>35606</v>
       </c>
-      <c r="D38" s="8"/>
     </row>
     <row r="39">
       <c r="A39" s="7">
         <v>22981</v>
       </c>
       <c r="B39" s="8"/>
-      <c r="C39" s="8">
+      <c r="C39" s="8"/>
+      <c r="D39" s="8">
         <v>31355</v>
       </c>
-      <c r="D39" s="8"/>
     </row>
     <row r="40">
       <c r="A40" s="7">
         <v>23346</v>
       </c>
       <c r="B40" s="8"/>
-      <c r="C40" s="8">
+      <c r="C40" s="8"/>
+      <c r="D40" s="8">
         <v>34225</v>
       </c>
-      <c r="D40" s="8"/>
     </row>
     <row r="41">
       <c r="A41" s="7">
         <v>23712</v>
       </c>
       <c r="B41" s="8"/>
-      <c r="C41" s="8">
+      <c r="C41" s="8"/>
+      <c r="D41" s="8">
         <v>39954</v>
       </c>
-      <c r="D41" s="8"/>
     </row>
     <row r="42">
       <c r="A42" s="7">
         <v>24077</v>
       </c>
       <c r="B42" s="8"/>
-      <c r="C42" s="8">
+      <c r="C42" s="8"/>
+      <c r="D42" s="8">
         <v>47332</v>
       </c>
-      <c r="D42" s="8"/>
     </row>
     <row r="43">
       <c r="A43" s="7">
         <v>24442</v>
       </c>
       <c r="B43" s="8"/>
-      <c r="C43" s="8">
+      <c r="C43" s="8"/>
+      <c r="D43" s="8">
         <v>55871</v>
       </c>
-      <c r="D43" s="8"/>
     </row>
     <row r="44">
       <c r="A44" s="7">
         <v>24807</v>
       </c>
       <c r="B44" s="8"/>
-      <c r="C44" s="8">
+      <c r="C44" s="8"/>
+      <c r="D44" s="8">
         <v>41936</v>
       </c>
-      <c r="D44" s="8"/>
     </row>
     <row r="45">
       <c r="A45" s="7">
         <v>25173</v>
       </c>
       <c r="B45" s="8"/>
-      <c r="C45" s="8">
+      <c r="C45" s="8"/>
+      <c r="D45" s="8">
         <v>36125</v>
       </c>
-      <c r="D45" s="8"/>
     </row>
     <row r="46">
       <c r="A46" s="7">
         <v>25538</v>
       </c>
       <c r="B46" s="8"/>
-      <c r="C46" s="8">
+      <c r="C46" s="8"/>
+      <c r="D46" s="8">
         <v>52676</v>
       </c>
-      <c r="D46" s="8"/>
     </row>
     <row r="47">
       <c r="A47" s="7">
         <v>25903</v>
       </c>
       <c r="B47" s="8"/>
-      <c r="C47" s="8">
+      <c r="C47" s="8"/>
+      <c r="D47" s="8">
         <v>66290</v>
       </c>
-      <c r="D47" s="8"/>
     </row>
     <row r="48">
       <c r="A48" s="7">
         <v>26268</v>
       </c>
       <c r="B48" s="8"/>
-      <c r="C48" s="8">
+      <c r="C48" s="8"/>
+      <c r="D48" s="8">
         <v>74473</v>
       </c>
-      <c r="D48" s="8"/>
     </row>
     <row r="49">
       <c r="A49" s="7">
         <v>26634</v>
       </c>
       <c r="B49" s="8"/>
-      <c r="C49" s="8">
+      <c r="C49" s="8"/>
+      <c r="D49" s="8">
         <v>76656</v>
       </c>
-      <c r="D49" s="8"/>
     </row>
     <row r="50">
       <c r="A50" s="7">
         <v>26999</v>
       </c>
       <c r="B50" s="8"/>
-      <c r="C50" s="8">
+      <c r="C50" s="8"/>
+      <c r="D50" s="8">
         <v>80967</v>
       </c>
-      <c r="D50" s="8"/>
     </row>
     <row r="51">
       <c r="A51" s="7">
         <v>27364</v>
       </c>
       <c r="B51" s="8"/>
-      <c r="C51" s="8">
+      <c r="C51" s="8"/>
+      <c r="D51" s="8">
         <v>78314</v>
       </c>
-      <c r="D51" s="8"/>
     </row>
     <row r="52">
       <c r="A52" s="7">
         <v>27729</v>
       </c>
       <c r="B52" s="8"/>
-      <c r="C52" s="8">
+      <c r="C52" s="8"/>
+      <c r="D52" s="8">
         <v>81561</v>
       </c>
-      <c r="D52" s="8"/>
     </row>
     <row r="53">
       <c r="A53" s="7">
         <v>28095</v>
       </c>
       <c r="B53" s="8"/>
-      <c r="C53" s="8">
+      <c r="C53" s="8"/>
+      <c r="D53" s="8">
         <v>77658</v>
       </c>
-      <c r="D53" s="8"/>
     </row>
     <row r="54">
       <c r="A54" s="7">
         <v>28460</v>
       </c>
       <c r="B54" s="8"/>
-      <c r="C54" s="8">
+      <c r="C54" s="8"/>
+      <c r="D54" s="8">
         <v>87446</v>
       </c>
-      <c r="D54" s="8"/>
     </row>
     <row r="55">
       <c r="A55" s="7">
         <v>28825</v>
       </c>
       <c r="B55" s="8"/>
-      <c r="C55" s="8">
+      <c r="C55" s="8"/>
+      <c r="D55" s="8">
         <v>113226</v>
       </c>
-      <c r="D55" s="8"/>
     </row>
     <row r="56">
       <c r="A56" s="7">
         <v>29190</v>
       </c>
       <c r="B56" s="8"/>
-      <c r="C56" s="8">
+      <c r="C56" s="8"/>
+      <c r="D56" s="8">
         <v>114638</v>
       </c>
-      <c r="D56" s="8"/>
     </row>
     <row r="57">
       <c r="A57" s="7">
         <v>29556</v>
       </c>
       <c r="B57" s="8"/>
-      <c r="C57" s="8">
+      <c r="C57" s="8"/>
+      <c r="D57" s="8">
         <v>115993</v>
       </c>
-      <c r="D57" s="8"/>
     </row>
     <row r="58">
       <c r="A58" s="7">
         <v>29921</v>
       </c>
       <c r="B58" s="8"/>
-      <c r="C58" s="8">
+      <c r="C58" s="8"/>
+      <c r="D58" s="8">
         <v>117579</v>
       </c>
-      <c r="D58" s="8"/>
     </row>
     <row r="59">
       <c r="A59" s="7">
         <v>30286</v>
       </c>
       <c r="B59" s="8"/>
-      <c r="C59" s="8">
+      <c r="C59" s="8"/>
+      <c r="D59" s="8">
         <v>121233</v>
       </c>
-      <c r="D59" s="8"/>
     </row>
     <row r="60">
       <c r="A60" s="7">
         <v>30651</v>
       </c>
       <c r="B60" s="8"/>
-      <c r="C60" s="8">
+      <c r="C60" s="8"/>
+      <c r="D60" s="8">
         <v>136695</v>
       </c>
-      <c r="D60" s="8"/>
     </row>
     <row r="61">
       <c r="A61" s="7">
         <v>31017</v>
       </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8">
+      <c r="B61" s="8">
+        <v>11158</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8">
         <v>164286</v>
-      </c>
-      <c r="D61" s="8">
-        <v>11158</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="7">
         <v>31382</v>
       </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8">
+      <c r="B62" s="8">
+        <v>13366</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8">
         <v>200482</v>
-      </c>
-      <c r="D62" s="8">
-        <v>13366</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="7">
         <v>31747</v>
       </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8">
+      <c r="B63" s="8">
+        <v>16019</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8">
         <v>212201</v>
-      </c>
-      <c r="D63" s="8">
-        <v>16019</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="7">
         <v>32112</v>
       </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8">
+      <c r="B64" s="8">
+        <v>18513</v>
+      </c>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8">
         <v>219935</v>
-      </c>
-      <c r="D64" s="8">
-        <v>18513</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="7">
         <v>32478</v>
       </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8">
+      <c r="B65" s="8">
+        <v>21050</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8">
         <v>235724</v>
-      </c>
-      <c r="D65" s="8">
-        <v>21050</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="7">
         <v>32843</v>
       </c>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8">
+      <c r="B66" s="8">
+        <v>24067</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8">
         <v>266490</v>
-      </c>
-      <c r="D66" s="8">
-        <v>24067</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="7">
         <v>33208</v>
       </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8">
+      <c r="B67" s="8">
+        <v>30984</v>
+      </c>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8">
         <v>293710</v>
-      </c>
-      <c r="D67" s="8">
-        <v>30984</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="7">
         <v>33573</v>
       </c>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8">
+      <c r="B68" s="8">
+        <v>38041</v>
+      </c>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8">
         <v>314948</v>
-      </c>
-      <c r="D68" s="8">
-        <v>38041</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="7">
         <v>33939</v>
       </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8">
+      <c r="B69" s="8">
+        <v>50367</v>
+      </c>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8">
         <v>348337</v>
-      </c>
-      <c r="D69" s="8">
-        <v>50367</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="7">
         <v>34304</v>
       </c>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8">
+      <c r="B70" s="8">
+        <v>60746</v>
+      </c>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8">
         <v>434895</v>
-      </c>
-      <c r="D70" s="8">
-        <v>60746</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="7">
         <v>34669</v>
       </c>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8">
+      <c r="B71" s="8">
+        <v>69983</v>
+      </c>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8">
         <v>521810</v>
-      </c>
-      <c r="D71" s="8">
-        <v>69983</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="7">
         <v>35034</v>
       </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8">
+      <c r="B72" s="8">
+        <v>81368</v>
+      </c>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8">
         <v>624220</v>
-      </c>
-      <c r="D72" s="8">
-        <v>81368</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="7">
         <v>35400</v>
       </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8">
+      <c r="B73" s="8">
+        <v>95385</v>
+      </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8">
         <v>740799</v>
-      </c>
-      <c r="D73" s="8">
-        <v>95385</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="7">
         <v>35765</v>
       </c>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8">
+      <c r="B74" s="8">
+        <v>112011</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8">
         <v>865114</v>
-      </c>
-      <c r="D74" s="8">
-        <v>112011</v>
       </c>
     </row>
     <row r="75">
@@ -1351,13 +1351,13 @@
         <v>36130</v>
       </c>
       <c r="B75" s="8">
+        <v>129477</v>
+      </c>
+      <c r="C75" s="8">
         <v>342.39</v>
       </c>
-      <c r="C75" s="8">
+      <c r="D75" s="8">
         <v>987595</v>
-      </c>
-      <c r="D75" s="8">
-        <v>129477</v>
       </c>
     </row>
     <row r="76">
@@ -1365,13 +1365,13 @@
         <v>36495</v>
       </c>
       <c r="B76" s="8">
+        <v>143412</v>
+      </c>
+      <c r="C76" s="8">
         <v>438.35</v>
       </c>
-      <c r="C76" s="8">
+      <c r="D76" s="8">
         <v>1144408</v>
-      </c>
-      <c r="D76" s="8">
-        <v>143412</v>
       </c>
     </row>
     <row r="77">
@@ -1379,13 +1379,13 @@
         <v>36861</v>
       </c>
       <c r="B77" s="8">
+        <v>167493</v>
+      </c>
+      <c r="C77" s="8">
         <v>572.71</v>
       </c>
-      <c r="C77" s="8">
+      <c r="D77" s="8">
         <v>1339523</v>
-      </c>
-      <c r="D77" s="8">
-        <v>167493</v>
       </c>
     </row>
     <row r="78">
@@ -1393,13 +1393,13 @@
         <v>37226</v>
       </c>
       <c r="B78" s="8">
+        <v>179558</v>
+      </c>
+      <c r="C78" s="8">
         <v>791.02</v>
       </c>
-      <c r="C78" s="8">
+      <c r="D78" s="8">
         <v>1638604</v>
-      </c>
-      <c r="D78" s="8">
-        <v>179558</v>
       </c>
     </row>
     <row r="79">
@@ -1407,13 +1407,13 @@
         <v>37591</v>
       </c>
       <c r="B79" s="8">
+        <v>199063</v>
+      </c>
+      <c r="C79" s="8">
         <v>767.73</v>
       </c>
-      <c r="C79" s="8">
+      <c r="D79" s="8">
         <v>1890364</v>
-      </c>
-      <c r="D79" s="8">
-        <v>199063</v>
       </c>
     </row>
     <row r="80">
@@ -1421,13 +1421,13 @@
         <v>37956</v>
       </c>
       <c r="B80" s="8">
+        <v>221016</v>
+      </c>
+      <c r="C80" s="8">
         <v>727.63</v>
       </c>
-      <c r="C80" s="8">
+      <c r="D80" s="8">
         <v>2171525</v>
-      </c>
-      <c r="D80" s="8">
-        <v>221016</v>
       </c>
     </row>
     <row r="81">
@@ -1435,13 +1435,13 @@
         <v>38322</v>
       </c>
       <c r="B81" s="8">
+        <v>256572</v>
+      </c>
+      <c r="C81" s="8">
         <v>922.91</v>
       </c>
-      <c r="C81" s="8">
+      <c r="D81" s="8">
         <v>2639647</v>
-      </c>
-      <c r="D81" s="8">
-        <v>256572</v>
       </c>
     </row>
     <row r="82">
@@ -1449,13 +1449,13 @@
         <v>38687</v>
       </c>
       <c r="B82" s="8">
+        <v>286765</v>
+      </c>
+      <c r="C82" s="8">
         <v>1126.49</v>
       </c>
-      <c r="C82" s="8">
+      <c r="D82" s="8">
         <v>3164929</v>
-      </c>
-      <c r="D82" s="8">
-        <v>286765</v>
       </c>
     </row>
     <row r="83">
@@ -1463,142 +1463,87 @@
         <v>39052</v>
       </c>
       <c r="B83" s="8">
+        <v>323560</v>
+      </c>
+      <c r="C83" s="8">
         <v>1235.8</v>
       </c>
-      <c r="C83" s="8">
+      <c r="D83" s="8">
         <v>3876020</v>
-      </c>
-      <c r="D83" s="8">
-        <v>323560</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="7">
         <v>39417</v>
       </c>
-      <c r="B84" s="8">
+      <c r="B84" s="8"/>
+      <c r="C84" s="8">
         <v>1482.71</v>
       </c>
-      <c r="C84" s="8">
+      <c r="D84" s="8">
         <v>5132178</v>
       </c>
-      <c r="D84" s="8"/>
     </row>
     <row r="85">
       <c r="A85" s="7">
         <v>39783</v>
       </c>
-      <c r="B85" s="8">
+      <c r="B85" s="8"/>
+      <c r="C85" s="8">
         <v>1598.61</v>
       </c>
-      <c r="C85" s="8">
+      <c r="D85" s="8">
         <v>6133035</v>
       </c>
-      <c r="D85" s="8"/>
     </row>
     <row r="86">
       <c r="A86" s="7">
         <v>40148</v>
       </c>
-      <c r="B86" s="8">
+      <c r="B86" s="8"/>
+      <c r="C86" s="8">
         <v>1639.54</v>
       </c>
-      <c r="C86" s="8">
+      <c r="D86" s="8">
         <v>6851830</v>
       </c>
-      <c r="D86" s="8"/>
     </row>
     <row r="87">
       <c r="A87" s="7">
         <v>40513</v>
       </c>
-      <c r="B87" s="8">
+      <c r="B87" s="8"/>
+      <c r="C87" s="8">
         <v>2026.83</v>
       </c>
-      <c r="C87" s="8">
+      <c r="D87" s="8">
         <v>8310151</v>
       </c>
-      <c r="D87" s="8"/>
     </row>
     <row r="88">
       <c r="A88" s="7">
         <v>40878</v>
       </c>
-      <c r="B88" s="8">
+      <c r="B88" s="8"/>
+      <c r="C88" s="8">
         <v>1667.1</v>
       </c>
-      <c r="C88" s="8">
+      <c r="D88" s="8">
         <v>10374001</v>
       </c>
-      <c r="D88" s="8"/>
     </row>
     <row r="89">
       <c r="A89" s="7">
         <v>41244</v>
       </c>
       <c r="B89" s="8"/>
-      <c r="C89" s="8">
+      <c r="C89" s="8"/>
+      <c r="D89" s="8">
         <v>866666</v>
       </c>
-      <c r="D89" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>89</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Govt Revenue - Tax ; Individual Income</Name>
-          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
-          <SeriesId>310901701</SeriesId>
-          <Code>SR4825055</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>3</InitCol>
-          <EndRow>89</EndRow>
-          <EndCol>3</EndCol>
-          <Name>Govt Revenue</Name>
-          <DisplayName>Govt Revenue</DisplayName>
-          <SeriesId>310901801</SeriesId>
-          <Code>SR4825071</Code>
-          <Order>1</Order>
-        </MetadataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>4</InitCol>
-          <EndRow>89</EndRow>
-          <EndCol>4</EndCol>
-          <Name>Value Added in Industry</Name>
-          <DisplayName>Value Added in Industry</DisplayName>
-          <SeriesId>310902601</SeriesId>
-          <Code>SR4825076</Code>
-          <Order>2</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3145EF4D-DA45-4E7B-9D2E-182D0E935D1C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>